--- a/SCPI_DEF.xlsx
+++ b/SCPI_DEF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joris\Documents\GitHub\Pyvisa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C084BA8F-ECF2-47B2-BD6E-126F4ABE12A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE9ADCA-100B-45DF-BFC1-1183891AFC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="12585" windowHeight="14895" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="135" yWindow="240" windowWidth="14295" windowHeight="15105" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XDM2041" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="304">
   <si>
     <t>Name</t>
   </si>
@@ -593,12 +593,6 @@
     <t>CHANnel{CH}:OFFSet {OFFS}</t>
   </si>
   <si>
-    <t>Read vertical offset</t>
-  </si>
-  <si>
-    <t>CHANnel{CH}:OFFSet?</t>
-  </si>
-  <si>
     <t>Set time scale</t>
   </si>
   <si>
@@ -608,9 +602,6 @@
     <t>TIME</t>
   </si>
   <si>
-    <t>Read time scale</t>
-  </si>
-  <si>
     <t>TIMebase:SCALe?</t>
   </si>
   <si>
@@ -623,9 +614,6 @@
     <t>OFFS</t>
   </si>
   <si>
-    <t>Read time offset</t>
-  </si>
-  <si>
     <t>TIMebase:OFFSet?</t>
   </si>
   <si>
@@ -653,9 +641,6 @@
     <t>LEV:V.3f</t>
   </si>
   <si>
-    <t>Read trigger level</t>
-  </si>
-  <si>
     <t>TRIGger:EDGE:LEVel?</t>
   </si>
   <si>
@@ -668,42 +653,9 @@
     <t>MODE:AUTO;NORM;SING</t>
   </si>
   <si>
-    <t>Read trigger mode</t>
-  </si>
-  <si>
     <t>TRIGger:MODE?</t>
   </si>
   <si>
-    <t>Measure frequency</t>
-  </si>
-  <si>
-    <t>MEASure:FREQuency? CHANnel{CH}</t>
-  </si>
-  <si>
-    <t>Measure Vpp</t>
-  </si>
-  <si>
-    <t>MEASure:VPP? CHANnel{CH}</t>
-  </si>
-  <si>
-    <t>Measure Vrms</t>
-  </si>
-  <si>
-    <t>MEASure:VRMS? CHANnel{CH}</t>
-  </si>
-  <si>
-    <t>Measure mean voltage</t>
-  </si>
-  <si>
-    <t>MEASure:VAVerage? CHANnel{CH}</t>
-  </si>
-  <si>
-    <t>Measure duty cycle</t>
-  </si>
-  <si>
-    <t>MEASure:DUTYcycle? CHANnel{CH}</t>
-  </si>
-  <si>
     <t>Set acquisition type</t>
   </si>
   <si>
@@ -963,6 +915,84 @@
   </si>
   <si>
     <t>CH:C1;C2 | PARAM:FRQ;PERI;AMP;OFST;HLEV;LLEV;PHSE;DUTY;WIDTH|VALUE</t>
+  </si>
+  <si>
+    <t>Measure parameter</t>
+  </si>
+  <si>
+    <t>MEASure:{PARAM}? CHANnel{CH}</t>
+  </si>
+  <si>
+    <t>PARAM::FREQ;VPP;VRMS;VAVERAGE;DUTY|CH:1;2;3;4</t>
+  </si>
+  <si>
+    <t>Measure parameter2</t>
+  </si>
+  <si>
+    <t>PACU:{PARAM}? CHANnel{CH}</t>
+  </si>
+  <si>
+    <t>PARAM::PKPK;MAX;MIN;AMPL;TOP;BASE;CMEAN;MEAN;RMS;CRMS;OVSN;FPRE;OVSP;RPRE;PER;FREQ;PWID;NWID;RISE;FALL;WID;DUTY;NDUTY;ALL|CH:1;2;3;4</t>
+  </si>
+  <si>
+    <t>{CH}:PAVA? {PARAM}</t>
+  </si>
+  <si>
+    <t>TRMD SINGLE;ARM</t>
+  </si>
+  <si>
+    <t>CHANnel{CH}:OFFSet {OFFSET}</t>
+  </si>
+  <si>
+    <t>CH:1;2;3;4|OFFSET</t>
+  </si>
+  <si>
+    <t>CH:C1;C2;C3;C4|mode:ON;OFF</t>
+  </si>
+  <si>
+    <t>CH:C1;C2;C3;C4 | mode:0.1;0.2;0.5;1;2;5;10;20;50;100;200;500;1000;2000;5000;10000</t>
+  </si>
+  <si>
+    <t>BWL {CH}, {mode}</t>
+  </si>
+  <si>
+    <t>{CH}:ATTN {mode}</t>
+  </si>
+  <si>
+    <t>Set input Bandwith</t>
+  </si>
+  <si>
+    <t>Set input coupling</t>
+  </si>
+  <si>
+    <t>Set input attenuation</t>
+  </si>
+  <si>
+    <t>CH:1;2;3;4|PARAM:ALL;AMPL;BASE;CMEAN;CRMS;DUTY;FALL;FREQ;FPRE;MAX;MIN;MEAN;NDUTY;NWID;OVSN;PKPK;PER;RPRE;PWID;RMS;RISE;TOP;WID</t>
+  </si>
+  <si>
+    <t>SET50</t>
+  </si>
+  <si>
+    <t>Set trigger half input level</t>
+  </si>
+  <si>
+    <t>{CH}:TRCP {MODE}</t>
+  </si>
+  <si>
+    <t>CH:1;2;3;4|MODE:DC;AC;HFREJ;LFREJ</t>
+  </si>
+  <si>
+    <t>TRDL {TIME}</t>
+  </si>
+  <si>
+    <t>Set trigger delay (1E-9)</t>
+  </si>
+  <si>
+    <t>CH:1;2;3;4|LEVEL</t>
+  </si>
+  <si>
+    <t>{CH}:TRLV {LEVEL}</t>
   </si>
 </sst>
 </file>
@@ -2010,6 +2040,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>172474</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>721</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6B2A0A8-7ED9-4200-B59F-1E71A9624EB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20116800" y="1162050"/>
+          <a:ext cx="7335274" cy="5163271"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -2461,58 +2540,58 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D4" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="D5" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="D6" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="D7" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2601,58 +2680,58 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D4" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="D5" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="D6" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="D7" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2810,16 +2889,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="12" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="E8" s="12"/>
       <c r="G8" s="6"/>
@@ -2890,16 +2969,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="10" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="E13" s="10"/>
       <c r="G13" s="6"/>
@@ -2954,16 +3033,16 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="12" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="E17" s="12"/>
       <c r="G17" s="6"/>
@@ -3027,10 +3106,10 @@
         <v>105</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="G21" s="6"/>
     </row>
@@ -3249,16 +3328,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="E8" s="5"/>
       <c r="G8" s="6"/>
@@ -3337,16 +3416,16 @@
     </row>
     <row r="14" spans="1:7" ht="27.95" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="E14" s="5"/>
       <c r="G14" s="6"/>
@@ -3455,16 +3534,16 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="5" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="E23" s="5"/>
       <c r="G23" s="6"/>
@@ -3528,10 +3607,10 @@
         <v>105</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="G27" s="6"/>
     </row>
@@ -3896,10 +3975,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC2B197-BBF6-4032-B079-82991FDC08F6}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3965,515 +4044,356 @@
       </c>
       <c r="D4" s="8"/>
     </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+    </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="A6" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="A7" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="A8" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
-        <v>221</v>
+        <v>292</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>223</v>
+        <v>290</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>225</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="8" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="8" t="s">
-        <v>230</v>
+        <v>168</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>227</v>
+        <v>286</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>239</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="A13" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>237</v>
-      </c>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="8" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="1:4">
+        <v>224</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="8" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>162</v>
-      </c>
+    <row r="18" spans="1:5">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="8" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="8" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29" spans="1:4">
+        <v>188</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="8" t="s">
-        <v>177</v>
+        <v>297</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>296</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="8" t="s">
-        <v>180</v>
+        <v>278</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>284</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="8" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>186</v>
+        <v>193</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="8" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>189</v>
+        <v>203</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>191</v>
-      </c>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
       <c r="D34" s="8"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="D36" s="8"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="D43" s="8"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="D45" s="8"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C850955B-3547-4061-AAB8-09C8A9620129}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4559,58 +4479,58 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="8" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="8" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4621,57 +4541,57 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="8" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="8" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="8" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" s="8" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5">
       <c r="A18" s="8" t="s">
         <v>161</v>
       </c>
@@ -4683,7 +4603,7 @@
       </c>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19" s="8" t="s">
         <v>163</v>
       </c>
@@ -4695,7 +4615,7 @@
       </c>
       <c r="D19" s="8"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20" s="8" t="s">
         <v>165</v>
       </c>
@@ -4707,334 +4627,256 @@
       </c>
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="1:4">
+    <row r="22" spans="1:5">
+      <c r="A22" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="8" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5">
       <c r="A26" s="8" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="8" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>185</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="8" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>188</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="8" t="s">
-        <v>180</v>
+        <v>278</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31" spans="1:4">
+        <v>279</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="8" t="s">
-        <v>182</v>
+        <v>281</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>183</v>
+        <v>282</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>186</v>
-      </c>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>189</v>
-      </c>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>191</v>
-      </c>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
       <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>194</v>
-      </c>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="8" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>192</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>167</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>167</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="8" t="s">
+      <c r="F40" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="D43" s="8"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="D45" s="8"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5080,73 +4922,73 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="D6" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="D9" t="s">
         <v>154</v>
@@ -5154,13 +4996,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="D10" t="s">
         <v>154</v>
@@ -5168,71 +5010,71 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="D11" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="D16" t="s">
         <v>154</v>

--- a/SCPI_DEF.xlsx
+++ b/SCPI_DEF.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joris\Documents\GitHub\Pyvisa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joris\Desktop\New folder (2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE9ADCA-100B-45DF-BFC1-1183891AFC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984AC27E-D963-460D-87B5-0AF7A227E431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="240" windowWidth="14295" windowHeight="15105" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="15720" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XDM2041" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="308">
   <si>
     <t>Name</t>
   </si>
@@ -993,6 +993,18 @@
   </si>
   <si>
     <t>{CH}:TRLV {LEVEL}</t>
+  </si>
+  <si>
+    <t>SCDP</t>
+  </si>
+  <si>
+    <t>__IMAGE__</t>
+  </si>
+  <si>
+    <t>Screenshot</t>
+  </si>
+  <si>
+    <t>To convert raw to PIL image:</t>
   </si>
 </sst>
 </file>
@@ -2086,6 +2098,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2143125</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219491</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85926</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{102C7D2C-2970-428A-BC7F-185DC73FC53F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21469350" y="6286500"/>
+          <a:ext cx="2981741" cy="1438476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3977,8 +4033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC2B197-BBF6-4032-B079-82991FDC08F6}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4376,10 +4432,21 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
+      <c r="A34" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>304</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>307</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
